--- a/data_files/2019年4月26日销售数据统计.xlsx
+++ b/data_files/2019年4月26日销售数据统计.xlsx
@@ -742,10 +742,10 @@
         <v/>
       </c>
       <c r="F16">
+        <v>891</v>
+      </c>
+      <c r="G16">
         <v>790</v>
-      </c>
-      <c r="G16">
-        <v>891</v>
       </c>
     </row>
   </sheetData>
